--- a/group-reports/tables/sharif-results-after-queue-test-3.xlsx
+++ b/group-reports/tables/sharif-results-after-queue-test-3.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>207 usec</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>1113.4k</t>
+          <t>1113.4k usec</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>3818.17</t>
+          <t>3818.17 usec</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>212 usec</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>881763</t>
+          <t>881763 usec</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>4211.77</t>
+          <t>4211.77 usec</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -780,17 +780,17 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>223 usec</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>911865</t>
+          <t>911865 usec</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>3852.09</t>
+          <t>3852.09 usec</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -857,17 +857,17 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>221 usec</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>1146.6k</t>
+          <t>1146.6k usec</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>3670.68</t>
+          <t>3670.68 usec</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>241 usec</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>1063.6k</t>
+          <t>1063.6k usec</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>3989.22</t>
+          <t>3989.22 usec</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>237 usec</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>926305</t>
+          <t>926305 usec</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>3990.56</t>
+          <t>3990.56 usec</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>247 usec</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>687684</t>
+          <t>687684 usec</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>4325.66</t>
+          <t>4325.66 usec</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>204 usec</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>983079</t>
+          <t>983079 usec</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>3878.87</t>
+          <t>3878.87 usec</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>201 usec</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>1130.0k</t>
+          <t>1130.0k usec</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>4302.45</t>
+          <t>4302.45 usec</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>232 usec</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>1167.6k</t>
+          <t>1167.6k usec</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>4498.08</t>
+          <t>4498.08 usec</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>233 usec</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>574233</t>
+          <t>574233 usec</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>4038.59</t>
+          <t>4038.59 usec</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>238 usec</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>1241.8k</t>
+          <t>1241.8k usec</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>4127.15</t>
+          <t>4127.15 usec</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
